--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439CC631-9150-432D-AF71-5D088BCF9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B1B6C-D779-4CA1-8DA8-5EBA3893B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="4680" windowWidth="26430" windowHeight="15180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="397">
   <si>
     <t>ID</t>
   </si>
@@ -1259,6 +1259,48 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>Exam_id_1</t>
+  </si>
+  <si>
+    <t>Exam_id_2</t>
+  </si>
+  <si>
+    <t>Calendar Days Distance</t>
+  </si>
+  <si>
+    <t>Exam_id</t>
+  </si>
+  <si>
+    <t>Banned day</t>
+  </si>
+  <si>
+    <t>Distancia temporal entre exámenes</t>
+  </si>
+  <si>
+    <t>Exaámenes en el mismo día.</t>
+  </si>
+  <si>
+    <t>Día prohibido para examen</t>
+  </si>
+  <si>
+    <t>Exámenes en días diferentes</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>Orden para exámenes</t>
+  </si>
+  <si>
+    <t>First_id</t>
+  </si>
+  <si>
+    <t>Second_id</t>
+  </si>
+  <si>
+    <t>DD</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1852,96 +1894,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -2004,6 +1972,57 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2030,23 +2049,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2351,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -5341,7 +5360,7 @@
       <c r="J50" s="15">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K50" s="95"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="7" t="str">
         <f t="shared" si="2"/>
         <v>sábado</v>
@@ -6476,32 +6495,32 @@
     <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:R7 Q10 Q8:R9 Q11:R33 Q34 Q35:R67 A8:P43 A6:J6 L6:R6 A45:P57 A44:J44 L44:P44 A59:P67 A58:J58 L58:P58">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$S6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q67">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$Q6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$Q44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$Q58=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6513,159 +6532,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="76">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="76">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
+      <c r="A2" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" s="76">
+        <v>383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>47</v>
       </c>
-      <c r="C3" s="76">
+      <c r="B6">
         <v>34</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" s="93">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="93"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="97"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="97"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="97"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="97"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="30">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="97"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="97" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="97"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>24</v>
       </c>
-      <c r="C5" s="93">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" s="93">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7" s="93">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8" s="93">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9">
-        <v>47</v>
-      </c>
-      <c r="C9" s="93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="94"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="97"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="97"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>$Q1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="21" priority="4">
-      <formula>$Q2=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="20" priority="3">
-      <formula>$Q3=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C9">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>$Q3=0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="10">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6673,7 +6755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A3CB9E-ED1A-40D2-8190-0A166B48A835}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6767,7 +6851,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6963,7 +7047,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B1B6C-D779-4CA1-8DA8-5EBA3893B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E311C02-40F5-4889-8A76-8D1BE6824AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="4680" windowWidth="26430" windowHeight="15180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="4680" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -1279,9 +1279,6 @@
     <t>Distancia temporal entre exámenes</t>
   </si>
   <si>
-    <t>Exaámenes en el mismo día.</t>
-  </si>
-  <si>
     <t>Día prohibido para examen</t>
   </si>
   <si>
@@ -1301,6 +1298,9 @@
   </si>
   <si>
     <t>DD</t>
+  </si>
+  <si>
+    <t>Exámenes en el mismo día.</t>
   </si>
 </sst>
 </file>
@@ -1902,9 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6532,220 +6530,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="B2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="97" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>383</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>384</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>47</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>34</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7" s="93"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="97"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>389</v>
-      </c>
-      <c r="B10" s="97"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="97"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="97"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>383</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>34</v>
-      </c>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13">
         <v>47</v>
       </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>47</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="B16" s="97"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="C17" s="97"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="97"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20" s="30">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="97"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="97" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="97"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C23" s="97"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="B19" s="30">
-        <v>44364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
-        <v>396</v>
-      </c>
-      <c r="B21" s="97"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="97" t="s">
         <v>391</v>
       </c>
-      <c r="B22" s="97"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C27" s="97"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="97"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" s="97"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" s="97"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>394</v>
-      </c>
-      <c r="B28" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
+      <c r="C30">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E311C02-40F5-4889-8A76-8D1BE6824AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD629EE-0D95-4C33-A08B-A6CAB7C608F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="4680" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
     <t>DD</t>
   </si>
   <si>
-    <t>Exámenes en el mismo día.</t>
+    <t>Exámenes en el mismo día</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1408,6 +1408,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1800,7 +1812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1896,18 +1908,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1970,57 +2069,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2047,23 +2095,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2464,10 +2512,10 @@
       <c r="P5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="96" t="s">
+      <c r="Q5" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="R5" s="96"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
@@ -6493,32 +6541,32 @@
     <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:R7 Q10 Q8:R9 Q11:R33 Q34 Q35:R67 A8:P43 A6:J6 L6:R6 A45:P57 A44:J44 L44:P44 A59:P67 A58:J58 L58:P58">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$S6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q67">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$Q6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$Q44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$Q58=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6530,10 +6578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
-  <dimension ref="B2:E30"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,193 +6592,233 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="105"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="40" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="39">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="39">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>45</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="39">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="40">
         <v>1</v>
       </c>
       <c r="E7" s="93"/>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="95"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="85"/>
+    </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="102" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="103"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="104" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="105"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="40" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="39">
         <v>46</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="40">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="39">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="40">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="39">
         <v>47</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="97" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="95"/>
+      <c r="C16" s="85"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="102" t="s">
         <v>382</v>
       </c>
-      <c r="C17" s="97"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="97" t="s">
+      <c r="C19" s="103"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="C18" s="97"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="95" t="s">
+      <c r="C20" s="105"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="96" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C21" s="97" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="39">
         <v>23</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C22" s="98">
         <v>44364</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="102" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="97"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="97" t="s">
+      <c r="C26" s="103"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="97"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C27" s="105"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" s="40" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="39">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C29" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="97" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="95"/>
+      <c r="C30" s="85"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="C27" s="97"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="97" t="s">
+      <c r="C33" s="107"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="97"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C34" s="101"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" s="40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="39">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="C36" s="40">
         <v>26</v>
       </c>
     </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="95"/>
+      <c r="C37" s="85"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6836,7 +6924,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7032,7 +7120,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD629EE-0D95-4C33-A08B-A6CAB7C608F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CBF04-25CE-49C1-A15B-E3661A9B3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="ListaExámenes2020-2021paraCSV" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planificación!$A$5:$R$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planificación!$A$5:$S$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="398">
   <si>
     <t>ID</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>Exámenes en el mismo día</t>
+  </si>
+  <si>
+    <t>Tiempo Extra</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1916,16 +1919,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1934,7 +1936,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,70 +1954,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2069,6 +2023,57 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2095,23 +2100,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2414,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,34 +2441,39 @@
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>370</v>
       </c>
-      <c r="R1" s="53"/>
-    </row>
-    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="S1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="S2" s="53" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>367</v>
       </c>
       <c r="H3" s="54"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>137</v>
       </c>
@@ -2506,18 +2516,21 @@
       <c r="N5" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="92" t="s">
+      <c r="O5" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="P5" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="P5" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="R5" s="99"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S5" s="101"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <v>3</v>
       </c>
@@ -2556,27 +2569,28 @@
         <f>M6+J6</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O6" s="77">
-        <v>1</v>
-      </c>
+      <c r="O6" s="78"/>
       <c r="P6" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="77">
+        <v>0</v>
+      </c>
+      <c r="R6" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81" t="e">
+      <c r="S6" s="80"/>
+      <c r="T6" s="81" t="e">
         <f>VLOOKUP(K6,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T6" s="81"/>
       <c r="U6" s="81"/>
       <c r="V6" s="81"/>
       <c r="W6" s="81"/>
-      <c r="X6" s="82"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <v>2</v>
       </c>
@@ -2619,31 +2633,32 @@
         <f t="shared" ref="N7:N67" si="1">M7+J7</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="13">
         <v>1</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="S7" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="S7" s="5" t="e">
+      <c r="T7" s="5" t="e">
         <f>VLOOKUP(K7,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X7" s="40"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="40"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>3</v>
       </c>
@@ -2686,29 +2701,30 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333326</v>
       </c>
-      <c r="O8" s="77">
-        <v>1</v>
-      </c>
+      <c r="O8" s="112"/>
       <c r="P8" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="77">
         <v>2</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="R8" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="5" t="e">
+      <c r="S8" s="16"/>
+      <c r="T8" s="5" t="e">
         <f>VLOOKUP(K8,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X8" s="40"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="83">
         <v>0</v>
       </c>
@@ -2749,27 +2765,28 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O9" s="13">
-        <v>1</v>
-      </c>
+      <c r="O9" s="15"/>
       <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
         <v>3</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="5" t="e">
+      <c r="S9" s="16"/>
+      <c r="T9" s="5" t="e">
         <f>VLOOKUP(K9,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="40"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
         <v>2</v>
       </c>
@@ -2812,35 +2829,36 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O10" s="77">
-        <v>1</v>
-      </c>
+      <c r="O10" s="10"/>
       <c r="P10" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="77">
         <v>4</v>
       </c>
-      <c r="Q10" s="58" t="s">
+      <c r="R10" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="S10" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="S10" s="5" t="e">
+      <c r="T10" s="5" t="e">
         <f>VLOOKUP(K10,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>60</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X10" s="40"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <v>3</v>
       </c>
@@ -2881,27 +2899,28 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
         <v>5</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="5" t="e">
+      <c r="S11" s="19"/>
+      <c r="T11" s="5" t="e">
         <f>VLOOKUP(K11,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="40"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <v>4</v>
       </c>
@@ -2944,29 +2963,30 @@
         <f t="shared" si="1"/>
         <v>0.72916666666666663</v>
       </c>
-      <c r="O12" s="77">
-        <v>1</v>
-      </c>
+      <c r="O12" s="10"/>
       <c r="P12" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="77">
         <v>6</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="5" t="e">
+      <c r="S12" s="16"/>
+      <c r="T12" s="5" t="e">
         <f>VLOOKUP(K12,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="5"/>
+      <c r="X12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X12" s="40"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="40"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <v>2</v>
       </c>
@@ -3009,33 +3029,34 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O13" s="13">
-        <v>1</v>
-      </c>
+      <c r="O13" s="15"/>
       <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13">
         <v>7</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="S13" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="S13" s="5" t="e">
+      <c r="T13" s="5" t="e">
         <f>VLOOKUP(K13,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="36" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="X13" s="40" t="s">
+      <c r="Y13" s="40" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
         <v>1</v>
       </c>
@@ -3078,31 +3099,32 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O14" s="77">
-        <v>1</v>
-      </c>
+      <c r="O14" s="10"/>
       <c r="P14" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="77">
         <v>8</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="S14" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="S14" s="5" t="e">
+      <c r="T14" s="5" t="e">
         <f>VLOOKUP(K14,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="5"/>
+      <c r="X14" s="88" t="s">
         <v>377</v>
       </c>
-      <c r="X14" s="40"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="40"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
         <v>3</v>
       </c>
@@ -3145,27 +3167,28 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O15" s="13">
-        <v>1</v>
-      </c>
+      <c r="O15" s="15"/>
       <c r="P15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
         <v>9</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="5" t="e">
+      <c r="S15" s="16"/>
+      <c r="T15" s="5" t="e">
         <f>VLOOKUP(K15,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="40"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="40"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <v>4</v>
       </c>
@@ -3208,31 +3231,32 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O16" s="77">
-        <v>1</v>
-      </c>
+      <c r="O16" s="10"/>
       <c r="P16" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="77">
         <v>10</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="S16" s="5" t="e">
+      <c r="T16" s="5" t="e">
         <f>VLOOKUP(K16,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X16" s="40"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="40"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
         <v>3</v>
       </c>
@@ -3275,31 +3299,32 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O17" s="13">
-        <v>1</v>
-      </c>
+      <c r="O17" s="15"/>
       <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
         <v>11</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R17" s="46" t="s">
+      <c r="S17" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="S17" s="5" t="e">
+      <c r="T17" s="5" t="e">
         <f>VLOOKUP(K17,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="5"/>
+      <c r="X17" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X17" s="40"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="40"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="83">
         <v>2</v>
       </c>
@@ -3342,33 +3367,34 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O18" s="77">
-        <v>1</v>
-      </c>
+      <c r="O18" s="112"/>
       <c r="P18" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="77">
         <v>12</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="R18" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="S18" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="S18" s="5" t="e">
+      <c r="T18" s="5" t="e">
         <f>VLOOKUP(K18,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X18" s="40" t="s">
+      <c r="Y18" s="40" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
         <v>0</v>
       </c>
@@ -3409,27 +3435,28 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O19" s="13">
-        <v>1</v>
-      </c>
+      <c r="O19" s="15"/>
       <c r="P19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13">
         <v>13</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="R19" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="5" t="e">
+      <c r="S19" s="43"/>
+      <c r="T19" s="5" t="e">
         <f>VLOOKUP(K19,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="40"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="40"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
         <v>1</v>
       </c>
@@ -3470,31 +3497,32 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O20" s="77">
-        <v>1</v>
-      </c>
+      <c r="O20" s="10"/>
       <c r="P20" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="77">
         <v>14</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="S20" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="S20" s="5" t="e">
+      <c r="T20" s="5" t="e">
         <f>VLOOKUP(K20,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="88" t="s">
+      <c r="W20" s="5"/>
+      <c r="X20" s="88" t="s">
         <v>377</v>
       </c>
-      <c r="X20" s="40"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="40"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="83">
         <v>3</v>
       </c>
@@ -3537,31 +3565,32 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="O21" s="13">
-        <v>1</v>
-      </c>
+      <c r="O21" s="15"/>
       <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
         <v>15</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="R21" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="S21" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="S21" s="5" t="e">
+      <c r="T21" s="5" t="e">
         <f>VLOOKUP(K21,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="36" t="s">
+      <c r="W21" s="5"/>
+      <c r="X21" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="X21" s="40"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="40"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
         <v>2</v>
       </c>
@@ -3604,27 +3633,28 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O22" s="77">
-        <v>1</v>
-      </c>
+      <c r="O22" s="113"/>
       <c r="P22" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="77">
         <v>16</v>
       </c>
-      <c r="Q22" s="65" t="s">
+      <c r="R22" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R22" s="70"/>
-      <c r="S22" s="71" t="e">
+      <c r="S22" s="70"/>
+      <c r="T22" s="71" t="e">
         <f>VLOOKUP(K22,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T22" s="71"/>
       <c r="U22" s="71"/>
       <c r="V22" s="71"/>
       <c r="W22" s="71"/>
-      <c r="X22" s="85"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X22" s="71"/>
+      <c r="Y22" s="85"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
         <v>1</v>
       </c>
@@ -3667,31 +3697,32 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O23" s="13">
-        <v>1</v>
-      </c>
+      <c r="O23" s="10"/>
       <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
         <v>17</v>
       </c>
-      <c r="Q23" s="76" t="s">
+      <c r="R23" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="R23" s="86" t="s">
+      <c r="S23" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="S23" s="81" t="e">
+      <c r="T23" s="81" t="e">
         <f>VLOOKUP(K23,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T23" s="81"/>
       <c r="U23" s="81"/>
       <c r="V23" s="81"/>
-      <c r="W23" s="90" t="s">
+      <c r="W23" s="81"/>
+      <c r="X23" s="90" t="s">
         <v>379</v>
       </c>
-      <c r="X23" s="82"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="82"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <v>2</v>
       </c>
@@ -3734,31 +3765,32 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O24" s="77">
-        <v>1</v>
-      </c>
+      <c r="O24" s="10"/>
       <c r="P24" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="77">
         <v>18</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R24" s="19" t="s">
+      <c r="S24" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="S24" s="5" t="e">
+      <c r="T24" s="5" t="e">
         <f>VLOOKUP(K24,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X24" s="40"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="40"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="83">
         <v>0</v>
       </c>
@@ -3799,27 +3831,28 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O25" s="13">
-        <v>1</v>
-      </c>
+      <c r="O25" s="15"/>
       <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13">
         <v>19</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="R25" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="5" t="e">
+      <c r="S25" s="16"/>
+      <c r="T25" s="5" t="e">
         <f>VLOOKUP(K25,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="40"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="40"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <v>0</v>
       </c>
@@ -3860,29 +3893,30 @@
         <f t="shared" si="1"/>
         <v>0.72916666666666674</v>
       </c>
-      <c r="O26" s="77">
-        <v>1</v>
-      </c>
+      <c r="O26" s="10"/>
       <c r="P26" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="77">
         <v>20</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R26" s="19"/>
-      <c r="S26" s="5" t="e">
+      <c r="S26" s="19"/>
+      <c r="T26" s="5" t="e">
         <f>VLOOKUP(K26,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="40"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X26" s="5"/>
+      <c r="Y26" s="40"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <v>3</v>
       </c>
@@ -3923,27 +3957,28 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="O27" s="13">
-        <v>1</v>
-      </c>
+      <c r="O27" s="15"/>
       <c r="P27" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="13">
         <v>21</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="R27" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="5" t="e">
+      <c r="S27" s="16"/>
+      <c r="T27" s="5" t="e">
         <f>VLOOKUP(K27,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="40"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X27" s="5"/>
+      <c r="Y27" s="40"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <v>3</v>
       </c>
@@ -3984,27 +4019,28 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="O28" s="77">
-        <v>1</v>
-      </c>
+      <c r="O28" s="10"/>
       <c r="P28" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="77">
         <v>22</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="R28" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="5" t="e">
+      <c r="S28" s="23"/>
+      <c r="T28" s="5" t="e">
         <f>VLOOKUP(K28,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="40"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X28" s="5"/>
+      <c r="Y28" s="40"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="87">
         <v>1</v>
       </c>
@@ -4045,35 +4081,36 @@
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="O29" s="13">
-        <v>1</v>
-      </c>
+      <c r="O29" s="15"/>
       <c r="P29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13">
         <v>23</v>
       </c>
-      <c r="Q29" s="58" t="s">
+      <c r="R29" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="R29" s="61" t="s">
+      <c r="S29" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="S29" s="5" t="e">
+      <c r="T29" s="5" t="e">
         <f>VLOOKUP(K29,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="V29" s="5">
+      <c r="W29" s="5">
         <v>60</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="X29" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X29" s="40"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="40"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="83">
         <v>2</v>
       </c>
@@ -4116,29 +4153,30 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333326</v>
       </c>
-      <c r="O30" s="77">
-        <v>1</v>
-      </c>
+      <c r="O30" s="10"/>
       <c r="P30" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="77">
         <v>24</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R30" s="16"/>
-      <c r="S30" s="5" t="e">
+      <c r="S30" s="16"/>
+      <c r="T30" s="5" t="e">
         <f>VLOOKUP(K30,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X30" s="40"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="40"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="83">
         <v>0</v>
       </c>
@@ -4181,27 +4219,28 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="O31" s="13">
-        <v>1</v>
-      </c>
+      <c r="O31" s="15"/>
       <c r="P31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="13">
         <v>25</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="R31" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="5" t="e">
+      <c r="S31" s="16"/>
+      <c r="T31" s="5" t="e">
         <f>VLOOKUP(K31,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="40"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="40"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="83">
         <v>1</v>
       </c>
@@ -4244,29 +4283,30 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O32" s="77">
-        <v>1</v>
-      </c>
+      <c r="O32" s="10"/>
       <c r="P32" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="77">
         <v>26</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="R32" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R32" s="16"/>
-      <c r="S32" s="5" t="e">
+      <c r="S32" s="16"/>
+      <c r="T32" s="5" t="e">
         <f>VLOOKUP(K32,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="5"/>
+      <c r="X32" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X32" s="40"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="40"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="83">
         <v>3</v>
       </c>
@@ -4309,29 +4349,30 @@
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="O33" s="13">
-        <v>1</v>
-      </c>
+      <c r="O33" s="15"/>
       <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
         <v>27</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="R33" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="5" t="e">
+      <c r="S33" s="16"/>
+      <c r="T33" s="5" t="e">
         <f>VLOOKUP(K33,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5" t="s">
+      <c r="W33" s="5"/>
+      <c r="X33" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X33" s="40"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="40"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="83">
         <v>2</v>
       </c>
@@ -4374,35 +4415,36 @@
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
-      <c r="O34" s="77">
-        <v>1</v>
-      </c>
+      <c r="O34" s="10"/>
       <c r="P34" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="77">
         <v>28</v>
       </c>
-      <c r="Q34" s="58" t="s">
+      <c r="R34" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="R34" s="59" t="s">
+      <c r="S34" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="S34" s="5" t="e">
+      <c r="T34" s="5" t="e">
         <f>VLOOKUP(K34,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="5"/>
+      <c r="V34" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="V34" s="5">
+      <c r="W34" s="5">
         <v>60</v>
       </c>
-      <c r="W34" s="88" t="s">
+      <c r="X34" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X34" s="40"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="40"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="83">
         <v>1</v>
       </c>
@@ -4445,31 +4487,32 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O35" s="13">
-        <v>1</v>
-      </c>
+      <c r="O35" s="15"/>
       <c r="P35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="13">
         <v>29</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="R35" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R35" s="21" t="s">
+      <c r="S35" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="S35" s="5" t="e">
+      <c r="T35" s="5" t="e">
         <f>VLOOKUP(K35,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="88" t="s">
+      <c r="W35" s="5"/>
+      <c r="X35" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X35" s="40"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="40"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="83">
         <v>4</v>
       </c>
@@ -4512,31 +4555,32 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O36" s="77">
-        <v>1</v>
-      </c>
+      <c r="O36" s="10"/>
       <c r="P36" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="77">
         <v>30</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="R36" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="S36" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="S36" s="5" t="e">
+      <c r="T36" s="5" t="e">
         <f>VLOOKUP(K36,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5" t="s">
+      <c r="W36" s="5"/>
+      <c r="X36" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X36" s="40"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="40"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="83">
         <v>2</v>
       </c>
@@ -4579,31 +4623,32 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O37" s="13">
-        <v>1</v>
-      </c>
+      <c r="O37" s="15"/>
       <c r="P37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="13">
         <v>31</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="R37" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R37" s="20" t="s">
+      <c r="S37" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="S37" s="5" t="e">
+      <c r="T37" s="5" t="e">
         <f>VLOOKUP(K37,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="5" t="s">
+      <c r="W37" s="5"/>
+      <c r="X37" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X37" s="40"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="40"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="83">
         <v>1</v>
       </c>
@@ -4646,31 +4691,32 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O38" s="77">
-        <v>1</v>
-      </c>
+      <c r="O38" s="10"/>
       <c r="P38" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="77">
         <v>32</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="R38" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R38" s="64" t="s">
+      <c r="S38" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="S38" s="5" t="e">
+      <c r="T38" s="5" t="e">
         <f>VLOOKUP(K38,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="88" t="s">
+      <c r="W38" s="5"/>
+      <c r="X38" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X38" s="40"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="40"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="83">
         <v>3</v>
       </c>
@@ -4711,27 +4757,28 @@
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="O39" s="13">
-        <v>1</v>
-      </c>
+      <c r="O39" s="15"/>
       <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13">
         <v>33</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="R39" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R39" s="16"/>
-      <c r="S39" s="5" t="e">
+      <c r="S39" s="16"/>
+      <c r="T39" s="5" t="e">
         <f>VLOOKUP(K39,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="40"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X39" s="5"/>
+      <c r="Y39" s="40"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="83">
         <v>3</v>
       </c>
@@ -4772,27 +4819,28 @@
         <f t="shared" si="1"/>
         <v>0.52083333333333337</v>
       </c>
-      <c r="O40" s="77">
-        <v>1</v>
-      </c>
+      <c r="O40" s="10"/>
       <c r="P40" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="77">
         <v>34</v>
       </c>
-      <c r="Q40" s="12" t="s">
+      <c r="R40" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="5" t="e">
+      <c r="S40" s="19"/>
+      <c r="T40" s="5" t="e">
         <f>VLOOKUP(K40,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="40"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X40" s="5"/>
+      <c r="Y40" s="40"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="83">
         <v>2</v>
       </c>
@@ -4835,31 +4883,32 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O41" s="13">
-        <v>1</v>
-      </c>
+      <c r="O41" s="15"/>
       <c r="P41" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="13">
         <v>35</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="R41" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R41" s="28" t="s">
+      <c r="S41" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="S41" s="5" t="e">
+      <c r="T41" s="5" t="e">
         <f>VLOOKUP(K41,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="5" t="s">
+      <c r="W41" s="5"/>
+      <c r="X41" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X41" s="40"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="40"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
         <v>0</v>
       </c>
@@ -4900,27 +4949,28 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O42" s="77">
-        <v>1</v>
-      </c>
+      <c r="O42" s="10"/>
       <c r="P42" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="77">
         <v>36</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="R42" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R42" s="16"/>
-      <c r="S42" s="5" t="e">
+      <c r="S42" s="16"/>
+      <c r="T42" s="5" t="e">
         <f>VLOOKUP(K42,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="40"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X42" s="5"/>
+      <c r="Y42" s="40"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="83">
         <v>3</v>
       </c>
@@ -4963,33 +5013,34 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O43" s="13">
-        <v>1</v>
-      </c>
+      <c r="O43" s="15"/>
       <c r="P43" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="13">
         <v>37</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="R43" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R43" s="28" t="s">
+      <c r="S43" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="S43" s="5" t="e">
+      <c r="T43" s="5" t="e">
         <f>VLOOKUP(K43,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="U43" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="U43" s="5"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="89" t="s">
+      <c r="W43" s="5"/>
+      <c r="X43" s="89" t="s">
         <v>379</v>
       </c>
-      <c r="X43" s="40"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="40"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="83">
         <v>1</v>
       </c>
@@ -5032,31 +5083,32 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O44" s="77">
-        <v>1</v>
-      </c>
+      <c r="O44" s="10"/>
       <c r="P44" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="77">
         <v>38</v>
       </c>
-      <c r="Q44" s="12" t="s">
+      <c r="R44" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R44" s="16" t="s">
+      <c r="S44" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="S44" s="5" t="e">
+      <c r="T44" s="5" t="e">
         <f>VLOOKUP(K44,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="5" t="s">
+      <c r="W44" s="5"/>
+      <c r="X44" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X44" s="40"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" s="40"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="83">
         <v>2</v>
       </c>
@@ -5099,31 +5151,32 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O45" s="13">
-        <v>1</v>
-      </c>
+      <c r="O45" s="60"/>
       <c r="P45" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="13">
         <v>39</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="R45" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R45" s="19" t="s">
+      <c r="S45" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="S45" s="5" t="e">
+      <c r="T45" s="5" t="e">
         <f>VLOOKUP(K45,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="88" t="s">
+      <c r="W45" s="5"/>
+      <c r="X45" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X45" s="40"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="40"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="83">
         <v>1</v>
       </c>
@@ -5166,29 +5219,30 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O46" s="77">
-        <v>1</v>
-      </c>
+      <c r="O46" s="10"/>
       <c r="P46" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="77">
         <v>40</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R46" s="19"/>
-      <c r="S46" s="5" t="e">
+      <c r="S46" s="19"/>
+      <c r="T46" s="5" t="e">
         <f>VLOOKUP(K46,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="88" t="s">
+      <c r="W46" s="5"/>
+      <c r="X46" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X46" s="40"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46" s="40"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="83">
         <v>0</v>
       </c>
@@ -5231,27 +5285,28 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O47" s="13">
-        <v>1</v>
-      </c>
+      <c r="O47" s="15"/>
       <c r="P47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="13">
         <v>41</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="R47" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R47" s="16"/>
-      <c r="S47" s="5" t="e">
+      <c r="S47" s="16"/>
+      <c r="T47" s="5" t="e">
         <f>VLOOKUP(K47,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="40"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X47" s="5"/>
+      <c r="Y47" s="40"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="83">
         <v>2</v>
       </c>
@@ -5292,29 +5347,30 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O48" s="77">
-        <v>1</v>
-      </c>
+      <c r="O48" s="10"/>
       <c r="P48" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="77">
         <v>42</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="R48" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5" t="e">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5" t="e">
         <f>VLOOKUP(K48,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T48" s="22" t="s">
+      <c r="U48" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="40"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X48" s="5"/>
+      <c r="Y48" s="40"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="83">
         <v>3</v>
       </c>
@@ -5355,27 +5411,28 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O49" s="13">
-        <v>1</v>
-      </c>
+      <c r="O49" s="15"/>
       <c r="P49" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="13">
         <v>43</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="R49" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R49" s="19"/>
-      <c r="S49" s="5" t="e">
+      <c r="S49" s="19"/>
+      <c r="T49" s="5" t="e">
         <f>VLOOKUP(K49,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="40"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X49" s="5"/>
+      <c r="Y49" s="40"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="83">
         <v>1</v>
       </c>
@@ -5418,31 +5475,32 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O50" s="77">
-        <v>1</v>
-      </c>
+      <c r="O50" s="10"/>
       <c r="P50" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="77">
         <v>44</v>
       </c>
-      <c r="Q50" s="12" t="s">
+      <c r="R50" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R50" s="29" t="s">
+      <c r="S50" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="S50" s="5" t="e">
+      <c r="T50" s="5" t="e">
         <f>VLOOKUP(K50,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="89" t="s">
+      <c r="W50" s="5"/>
+      <c r="X50" s="89" t="s">
         <v>379</v>
       </c>
-      <c r="X50" s="40"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="40"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="83">
         <v>4</v>
       </c>
@@ -5485,27 +5543,28 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O51" s="13">
-        <v>1</v>
-      </c>
+      <c r="O51" s="15"/>
       <c r="P51" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="13">
         <v>45</v>
       </c>
-      <c r="Q51" s="12" t="s">
+      <c r="R51" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R51" s="19"/>
-      <c r="S51" s="5" t="e">
+      <c r="S51" s="19"/>
+      <c r="T51" s="5" t="e">
         <f>VLOOKUP(K51,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="40"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X51" s="5"/>
+      <c r="Y51" s="40"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="83">
         <v>2</v>
       </c>
@@ -5548,31 +5607,32 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O52" s="77">
-        <v>1</v>
-      </c>
+      <c r="O52" s="10"/>
       <c r="P52" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="77">
         <v>46</v>
       </c>
-      <c r="Q52" s="12" t="s">
+      <c r="R52" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R52" s="44" t="s">
+      <c r="S52" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="S52" s="5" t="e">
+      <c r="T52" s="5" t="e">
         <f>VLOOKUP(K52,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="5" t="s">
+      <c r="W52" s="5"/>
+      <c r="X52" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X52" s="40"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="40"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="83">
         <v>1</v>
       </c>
@@ -5615,29 +5675,30 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O53" s="13">
-        <v>1</v>
-      </c>
+      <c r="O53" s="15"/>
       <c r="P53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="13">
         <v>47</v>
       </c>
-      <c r="Q53" s="12" t="s">
+      <c r="R53" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="R53" s="16"/>
-      <c r="S53" s="5" t="e">
+      <c r="S53" s="16"/>
+      <c r="T53" s="5" t="e">
         <f>VLOOKUP(K53,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="5" t="s">
+      <c r="W53" s="5"/>
+      <c r="X53" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="X53" s="40"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="40"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="83">
         <v>3</v>
       </c>
@@ -5678,27 +5739,28 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O54" s="77">
-        <v>1</v>
-      </c>
+      <c r="O54" s="10"/>
       <c r="P54" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="77">
         <v>48</v>
       </c>
-      <c r="Q54" s="12" t="s">
+      <c r="R54" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R54" s="23"/>
-      <c r="S54" s="5" t="e">
+      <c r="S54" s="23"/>
+      <c r="T54" s="5" t="e">
         <f>VLOOKUP(K54,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="40"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X54" s="5"/>
+      <c r="Y54" s="40"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="83">
         <v>2</v>
       </c>
@@ -5741,31 +5803,32 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O55" s="13">
-        <v>1</v>
-      </c>
+      <c r="O55" s="15"/>
       <c r="P55" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="13">
         <v>49</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="R55" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R55" s="29" t="s">
+      <c r="S55" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="S55" s="5" t="e">
+      <c r="T55" s="5" t="e">
         <f>VLOOKUP(K55,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="88" t="s">
+      <c r="W55" s="5"/>
+      <c r="X55" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="X55" s="40"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="40"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="83">
         <v>0</v>
       </c>
@@ -5806,27 +5869,28 @@
         <f t="shared" si="1"/>
         <v>0.97916666666666674</v>
       </c>
-      <c r="O56" s="77">
-        <v>1</v>
-      </c>
+      <c r="O56" s="10"/>
       <c r="P56" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="77">
         <v>50</v>
       </c>
-      <c r="Q56" s="12" t="s">
+      <c r="R56" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R56" s="16"/>
-      <c r="S56" s="5" t="e">
+      <c r="S56" s="16"/>
+      <c r="T56" s="5" t="e">
         <f>VLOOKUP(K56,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="40"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X56" s="5"/>
+      <c r="Y56" s="40"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="83">
         <v>3</v>
       </c>
@@ -5869,31 +5933,32 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O57" s="13">
-        <v>1</v>
-      </c>
+      <c r="O57" s="15"/>
       <c r="P57" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="13">
         <v>51</v>
       </c>
-      <c r="Q57" s="12" t="s">
+      <c r="R57" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="S57" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S57" s="5" t="e">
+      <c r="T57" s="5" t="e">
         <f>VLOOKUP(K57,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="5" t="s">
+      <c r="W57" s="5"/>
+      <c r="X57" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X57" s="40"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="40"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="83">
         <v>2</v>
       </c>
@@ -5936,31 +6001,32 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O58" s="77">
-        <v>1</v>
-      </c>
+      <c r="O58" s="10"/>
       <c r="P58" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="77">
         <v>52</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="R58" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R58" s="16" t="s">
+      <c r="S58" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="S58" s="5" t="e">
+      <c r="T58" s="5" t="e">
         <f>VLOOKUP(K58,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5" t="s">
+      <c r="W58" s="5"/>
+      <c r="X58" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="X58" s="40"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="40"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="84">
         <v>4</v>
       </c>
@@ -6003,27 +6069,28 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O59" s="13">
-        <v>1</v>
-      </c>
+      <c r="O59" s="47"/>
       <c r="P59" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="13">
         <v>53</v>
       </c>
-      <c r="Q59" s="65" t="s">
+      <c r="R59" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R59" s="70"/>
-      <c r="S59" s="71" t="e">
+      <c r="S59" s="70"/>
+      <c r="T59" s="71" t="e">
         <f>VLOOKUP(K59,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T59" s="71"/>
       <c r="U59" s="71"/>
       <c r="V59" s="71"/>
       <c r="W59" s="71"/>
-      <c r="X59" s="85"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X59" s="71"/>
+      <c r="Y59" s="85"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>0</v>
       </c>
@@ -6064,22 +6131,23 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O60" s="77">
-        <v>1</v>
-      </c>
+      <c r="O60" s="10"/>
       <c r="P60" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="77">
         <v>54</v>
       </c>
-      <c r="Q60" s="7" t="s">
+      <c r="R60" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="R60" s="72"/>
-      <c r="S60" t="e">
+      <c r="S60" s="72"/>
+      <c r="T60" t="e">
         <f>VLOOKUP(K60,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>2</v>
       </c>
@@ -6122,27 +6190,28 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O61" s="13">
-        <v>1</v>
-      </c>
+      <c r="O61" s="15"/>
       <c r="P61" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="13">
         <v>55</v>
       </c>
-      <c r="Q61" s="12" t="s">
+      <c r="R61" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R61" s="16" t="s">
+      <c r="S61" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="S61" t="e">
+      <c r="T61" t="e">
         <f>VLOOKUP(K61,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W61" s="91" t="s">
+      <c r="X61" s="91" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>1</v>
       </c>
@@ -6185,25 +6254,26 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O62" s="77">
-        <v>1</v>
-      </c>
+      <c r="O62" s="113"/>
       <c r="P62" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="77">
         <v>56</v>
       </c>
-      <c r="Q62" s="25" t="s">
+      <c r="R62" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="R62" s="45"/>
-      <c r="S62" t="e">
+      <c r="S62" s="45"/>
+      <c r="T62" t="e">
         <f>VLOOKUP(K62,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W62" s="91" t="s">
+      <c r="X62" s="91" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>2</v>
       </c>
@@ -6246,22 +6316,23 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O63" s="13">
-        <v>1</v>
-      </c>
+      <c r="O63" s="15"/>
       <c r="P63" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="13">
         <v>57</v>
       </c>
-      <c r="Q63" s="12" t="s">
+      <c r="R63" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R63" s="19"/>
-      <c r="S63" t="e">
+      <c r="S63" s="19"/>
+      <c r="T63" t="e">
         <f>VLOOKUP(K63,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>3</v>
       </c>
@@ -6304,30 +6375,31 @@
         <f t="shared" si="1"/>
         <v>0.52083333333333337</v>
       </c>
-      <c r="O64" s="77">
-        <v>1</v>
-      </c>
+      <c r="O64" s="10"/>
       <c r="P64" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="77">
         <v>58</v>
       </c>
-      <c r="Q64" s="12" t="s">
+      <c r="R64" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R64" s="56" t="s">
+      <c r="S64" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="S64" t="e">
+      <c r="T64" t="e">
         <f>VLOOKUP(K64,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>317</v>
       </c>
-      <c r="W64" s="91" t="s">
+      <c r="X64" s="91" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
         <v>2</v>
       </c>
@@ -6370,22 +6442,23 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O65" s="13">
-        <v>1</v>
-      </c>
+      <c r="O65" s="15"/>
       <c r="P65" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="13">
         <v>59</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="R65" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R65" s="16"/>
-      <c r="S65" t="e">
+      <c r="S65" s="16"/>
+      <c r="T65" t="e">
         <f>VLOOKUP(K65,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>3</v>
       </c>
@@ -6428,30 +6501,31 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333337</v>
       </c>
-      <c r="O66" s="77">
-        <v>1</v>
-      </c>
+      <c r="O66" s="10"/>
       <c r="P66" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="77">
         <v>60</v>
       </c>
-      <c r="Q66" s="12" t="s">
+      <c r="R66" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R66" s="17" t="s">
+      <c r="S66" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="S66" t="e">
+      <c r="T66" t="e">
         <f>VLOOKUP(K66,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>317</v>
       </c>
-      <c r="W66" s="91" t="s">
+      <c r="X66" s="91" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>1</v>
       </c>
@@ -6494,80 +6568,81 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O67" s="13">
-        <v>1</v>
-      </c>
+      <c r="O67" s="15"/>
       <c r="P67" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="13">
         <v>61</v>
       </c>
-      <c r="Q67" s="58" t="s">
+      <c r="R67" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="R67" s="59" t="s">
+      <c r="S67" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="S67" t="e">
+      <c r="T67" t="e">
         <f>VLOOKUP(K67,datos!$B$2:$C$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>312</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>368</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>20</v>
       </c>
-      <c r="W67" s="91" t="s">
+      <c r="X67" s="91" t="s">
         <v>379</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:R67" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q66">
+  <autoFilter ref="A5:S67" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R66">
       <sortCondition ref="K2:K64"/>
       <sortCondition ref="M2:M64"/>
       <sortCondition ref="A2:A64"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T64">
     <sortCondition ref="K2:K64"/>
     <sortCondition ref="M2:M64"/>
     <sortCondition ref="A2:A64"/>
     <sortCondition ref="F2:F64"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:R7 Q10 Q8:R9 Q11:R33 Q34 Q35:R67 A8:P43 A6:J6 L6:R6 A45:P57 A44:J44 L44:P44 A59:P67 A58:J58 L58:P58">
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>$S6=0</formula>
+  <conditionalFormatting sqref="A7:S7 R10 R8:S9 R11:S33 R34 R35:S67 A8:Q43 A6:J6 L6:S6 A45:Q57 A44:J44 L44:Q44 A59:Q67 A58:J58 L58:Q58">
+    <cfRule type="expression" dxfId="7" priority="18">
+      <formula>$T6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q67">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+  <conditionalFormatting sqref="R6:R67">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>$Q6=0</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$R6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>$Q44=0</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$R44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>$Q58=0</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$R58=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6580,7 +6655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
@@ -6595,15 +6670,15 @@
       <c r="B2" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
@@ -6659,13 +6734,13 @@
       <c r="B10" s="102" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="103"/>
+      <c r="C10" s="104"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="107"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
@@ -6707,13 +6782,13 @@
       <c r="B19" s="102" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="104"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="107"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="96" t="s">
@@ -6732,8 +6807,8 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
@@ -6742,13 +6817,13 @@
       <c r="B26" s="102" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="103"/>
+      <c r="C26" s="104"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="107"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
@@ -6775,16 +6850,16 @@
       <c r="C31" s="5"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="106" t="s">
+      <c r="B33" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="107"/>
+      <c r="C33" s="111"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="108" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="101"/>
+      <c r="C34" s="109"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
@@ -6924,7 +6999,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7120,7 +7195,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9558,7 +9633,7 @@
         <v>"Trabajo de Repositorios de Información"</v>
       </c>
       <c r="G2" t="str">
-        <f>""""&amp;IF(OR(planificación!Q6="online",planificación!Q6="polideportivo",planificación!Q6="entrega"),planificación!Q6,planificación!R6)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R6="online",planificación!R6="polideportivo",planificación!R6="entrega"),planificación!R6,planificación!S6)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -9588,7 +9663,7 @@
         <v>"Examen Teórico de Sistemas Operativos"</v>
       </c>
       <c r="G3" t="str">
-        <f>""""&amp;IF(OR(planificación!Q7="online",planificación!Q7="polideportivo",planificación!Q7="entrega"),planificación!Q7,planificación!R7)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R7="online",planificación!R7="polideportivo",planificación!R7="entrega"),planificación!R7,planificación!S7)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -9618,7 +9693,7 @@
         <v>"Examen Teórico de Diseño del Software"</v>
       </c>
       <c r="G4" t="str">
-        <f>""""&amp;IF(OR(planificación!Q8="online",planificación!Q8="polideportivo",planificación!Q8="entrega"),planificación!Q8,planificación!R8)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R8="online",planificación!R8="polideportivo",planificación!R8="entrega"),planificación!R8,planificación!S8)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -9648,7 +9723,7 @@
         <v>"Trabajo de Software para Dispositivos Móviles"</v>
       </c>
       <c r="G5" t="str">
-        <f>""""&amp;IF(OR(planificación!Q9="online",planificación!Q9="polideportivo",planificación!Q9="entrega"),planificación!Q9,planificación!R9)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R9="online",planificación!R9="polideportivo",planificación!R9="entrega"),planificación!R9,planificación!S9)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -9678,7 +9753,7 @@
         <v>"Examen Teórico de Arquitectura de Computadores"</v>
       </c>
       <c r="G6" t="str">
-        <f>""""&amp;IF(OR(planificación!Q10="online",planificación!Q10="polideportivo",planificación!Q10="entrega"),planificación!Q10,planificación!R10)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R10="online",planificación!R10="polideportivo",planificación!R10="entrega"),planificación!R10,planificación!S10)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -9708,7 +9783,7 @@
         <v>"Trabajo de Administración de Sistemas y Redes"</v>
       </c>
       <c r="G7" t="str">
-        <f>""""&amp;IF(OR(planificación!Q11="online",planificación!Q11="polideportivo",planificación!Q11="entrega"),planificación!Q11,planificación!R11)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R11="online",planificación!R11="polideportivo",planificación!R11="entrega"),planificación!R11,planificación!S11)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -9738,7 +9813,7 @@
         <v>"Examen Teórico de Sistemas Inteligentes"</v>
       </c>
       <c r="G8" t="str">
-        <f>""""&amp;IF(OR(planificación!Q12="online",planificación!Q12="polideportivo",planificación!Q12="entrega"),planificación!Q12,planificación!R12)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R12="online",planificación!R12="polideportivo",planificación!R12="entrega"),planificación!R12,planificación!S12)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -9768,7 +9843,7 @@
         <v>"Examen Práctico de Tecnología y Paradigmas de Programación"</v>
       </c>
       <c r="G9" t="str">
-        <f>""""&amp;IF(OR(planificación!Q13="online",planificación!Q13="polideportivo",planificación!Q13="entrega"),planificación!Q13,planificación!R13)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R13="online",planificación!R13="polideportivo",planificación!R13="entrega"),planificación!R13,planificación!S13)&amp;""""</f>
         <v>"L-14, L-31, L-32,  L-11"</v>
       </c>
     </row>
@@ -9798,7 +9873,7 @@
         <v>"Examen Teórico de Fundamentos de Informática"</v>
       </c>
       <c r="G10" t="str">
-        <f>""""&amp;IF(OR(planificación!Q14="online",planificación!Q14="polideportivo",planificación!Q14="entrega"),planificación!Q14,planificación!R14)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R14="online",planificación!R14="polideportivo",planificación!R14="entrega"),planificación!R14,planificación!S14)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -9828,7 +9903,7 @@
         <v>"Examen Teórico de Repositorios de Información"</v>
       </c>
       <c r="G11" t="str">
-        <f>""""&amp;IF(OR(planificación!Q15="online",planificación!Q15="polideportivo",planificación!Q15="entrega"),planificación!Q15,planificación!R15)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R15="online",planificación!R15="polideportivo",planificación!R15="entrega"),planificación!R15,planificación!S15)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -9858,7 +9933,7 @@
         <v>"Examen Teórico de Ingeniería de Requisitos"</v>
       </c>
       <c r="G12" t="str">
-        <f>""""&amp;IF(OR(planificación!Q16="online",planificación!Q16="polideportivo",planificación!Q16="entrega"),planificación!Q16,planificación!R16)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R16="online",planificación!R16="polideportivo",planificación!R16="entrega"),planificación!R16,planificación!S16)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -9888,7 +9963,7 @@
         <v>"Examen Teórico de Ingeniería del Proceso Software"</v>
       </c>
       <c r="G13" t="str">
-        <f>""""&amp;IF(OR(planificación!Q17="online",planificación!Q17="polideportivo",planificación!Q17="entrega"),planificación!Q17,planificación!R17)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R17="online",planificación!R17="polideportivo",planificación!R17="entrega"),planificación!R17,planificación!S17)&amp;""""</f>
         <v>"A-B-01, A-B-02"</v>
       </c>
     </row>
@@ -9918,7 +9993,7 @@
         <v>"Examen Teórico de Estructura de Datos"</v>
       </c>
       <c r="G14" t="str">
-        <f>""""&amp;IF(OR(planificación!Q18="online",planificación!Q18="polideportivo",planificación!Q18="entrega"),planificación!Q18,planificación!R18)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R18="online",planificación!R18="polideportivo",planificación!R18="entrega"),planificación!R18,planificación!S18)&amp;""""</f>
         <v>"A-S-01, A-S-02"</v>
       </c>
     </row>
@@ -9948,7 +10023,7 @@
         <v>"Trabajo de Software para Dispositivos Móviles"</v>
       </c>
       <c r="G15" t="str">
-        <f>""""&amp;IF(OR(planificación!Q19="online",planificación!Q19="polideportivo",planificación!Q19="entrega"),planificación!Q19,planificación!R19)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R19="online",planificación!R19="polideportivo",planificación!R19="entrega"),planificación!R19,planificación!S19)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -9978,7 +10053,7 @@
         <v>"Examen Teórico de "</v>
       </c>
       <c r="G16" t="str">
-        <f>""""&amp;IF(OR(planificación!Q20="online",planificación!Q20="polideportivo",planificación!Q20="entrega"),planificación!Q20,planificación!R20)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R20="online",planificación!R20="polideportivo",planificación!R20="entrega"),planificación!R20,planificación!S20)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -10008,7 +10083,7 @@
         <v>"Examen Teórico de Sistemas Distribuidos e Internet"</v>
       </c>
       <c r="G17" t="str">
-        <f>""""&amp;IF(OR(planificación!Q21="online",planificación!Q21="polideportivo",planificación!Q21="entrega"),planificación!Q21,planificación!R21)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R21="online",planificación!R21="polideportivo",planificación!R21="entrega"),planificación!R21,planificación!S21)&amp;""""</f>
         <v>"A-S-01, A-S-02"</v>
       </c>
     </row>
@@ -10038,7 +10113,7 @@
         <v>"Examen Teórico de Comunicación Persona-Máquina"</v>
       </c>
       <c r="G18" t="str">
-        <f>""""&amp;IF(OR(planificación!Q22="online",planificación!Q22="polideportivo",planificación!Q22="entrega"),planificación!Q22,planificación!R22)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R22="online",planificación!R22="polideportivo",planificación!R22="entrega"),planificación!R22,planificación!S22)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10068,7 +10143,7 @@
         <v>"Examen Práctico de Metodología de la Programación"</v>
       </c>
       <c r="G19" t="str">
-        <f>""""&amp;IF(OR(planificación!Q23="online",planificación!Q23="polideportivo",planificación!Q23="entrega"),planificación!Q23,planificación!R23)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R23="online",planificación!R23="polideportivo",planificación!R23="entrega"),planificación!R23,planificación!S23)&amp;""""</f>
         <v>"L-14, L-31, L-32"</v>
       </c>
     </row>
@@ -10098,7 +10173,7 @@
         <v>"Examen Teórico de Computación Numérica"</v>
       </c>
       <c r="G20" t="str">
-        <f>""""&amp;IF(OR(planificación!Q24="online",planificación!Q24="polideportivo",planificación!Q24="entrega"),planificación!Q24,planificación!R24)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R24="online",planificación!R24="polideportivo",planificación!R24="entrega"),planificación!R24,planificación!S24)&amp;""""</f>
         <v>"A-2-01"</v>
       </c>
     </row>
@@ -10128,7 +10203,7 @@
         <v>"Examen Teórico de Sistemas de Información para la Web"</v>
       </c>
       <c r="G21" t="str">
-        <f>""""&amp;IF(OR(planificación!Q25="online",planificación!Q25="polideportivo",planificación!Q25="entrega"),planificación!Q25,planificación!R25)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R25="online",planificación!R25="polideportivo",planificación!R25="entrega"),planificación!R25,planificación!S25)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10158,7 +10233,7 @@
         <v>"Trabajo de Sistemas de Información para la Web"</v>
       </c>
       <c r="G22" t="str">
-        <f>""""&amp;IF(OR(planificación!Q26="online",planificación!Q26="polideportivo",planificación!Q26="entrega"),planificación!Q26,planificación!R26)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R26="online",planificación!R26="polideportivo",planificación!R26="entrega"),planificación!R26,planificación!S26)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -10188,7 +10263,7 @@
         <v>"Examen Teórico de Arquitectura del Software"</v>
       </c>
       <c r="G23" t="str">
-        <f>""""&amp;IF(OR(planificación!Q27="online",planificación!Q27="polideportivo",planificación!Q27="entrega"),planificación!Q27,planificación!R27)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R27="online",planificación!R27="polideportivo",planificación!R27="entrega"),planificación!R27,planificación!S27)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10218,7 +10293,7 @@
         <v>"Trabajo de Arquitectura del Software"</v>
       </c>
       <c r="G24" t="str">
-        <f>""""&amp;IF(OR(planificación!Q28="online",planificación!Q28="polideportivo",planificación!Q28="entrega"),planificación!Q28,planificación!R28)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R28="online",planificación!R28="polideportivo",planificación!R28="entrega"),planificación!R28,planificación!S28)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10248,7 +10323,7 @@
         <v>"Examen Teórico de Fundamentos de Computadores y Redes"</v>
       </c>
       <c r="G25" t="str">
-        <f>""""&amp;IF(OR(planificación!Q29="online",planificación!Q29="polideportivo",planificación!Q29="entrega"),planificación!Q29,planificación!R29)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R29="online",planificación!R29="polideportivo",planificación!R29="entrega"),planificación!R29,planificación!S29)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -10278,7 +10353,7 @@
         <v>"Examen Teórico de Algoritmia"</v>
       </c>
       <c r="G26" t="str">
-        <f>""""&amp;IF(OR(planificación!Q30="online",planificación!Q30="polideportivo",planificación!Q30="entrega"),planificación!Q30,planificación!R30)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R30="online",planificación!R30="polideportivo",planificación!R30="entrega"),planificación!R30,planificación!S30)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -10308,7 +10383,7 @@
         <v>"Examen Teórico de Integración de aplicaciones empresariales"</v>
       </c>
       <c r="G27" t="str">
-        <f>""""&amp;IF(OR(planificación!Q31="online",planificación!Q31="polideportivo",planificación!Q31="entrega"),planificación!Q31,planificación!R31)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R31="online",planificación!R31="polideportivo",planificación!R31="entrega"),planificación!R31,planificación!S31)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10338,7 +10413,7 @@
         <v>"Examen Teórico de Ondas y Electromagnetismo"</v>
       </c>
       <c r="G28" t="str">
-        <f>""""&amp;IF(OR(planificación!Q32="online",planificación!Q32="polideportivo",planificación!Q32="entrega"),planificación!Q32,planificación!R32)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R32="online",planificación!R32="polideportivo",planificación!R32="entrega"),planificación!R32,planificación!S32)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -10368,7 +10443,7 @@
         <v>"Examen Teórico de Seguridad de Sistemas Informáticos"</v>
       </c>
       <c r="G29" t="str">
-        <f>""""&amp;IF(OR(planificación!Q33="online",planificación!Q33="polideportivo",planificación!Q33="entrega"),planificación!Q33,planificación!R33)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R33="online",planificación!R33="polideportivo",planificación!R33="entrega"),planificación!R33,planificación!S33)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -10398,7 +10473,7 @@
         <v>"Examen Práctico de Arquitectura de Computadores"</v>
       </c>
       <c r="G30" t="str">
-        <f>""""&amp;IF(OR(planificación!Q34="online",planificación!Q34="polideportivo",planificación!Q34="entrega"),planificación!Q34,planificación!R34)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R34="online",planificación!R34="polideportivo",planificación!R34="entrega"),planificación!R34,planificación!S34)&amp;""""</f>
         <v>"L-11, L-12, L-13, L-14, L-15, L-04"</v>
       </c>
     </row>
@@ -10428,7 +10503,7 @@
         <v>"Examen Práctico de Fundamentos de Informática (80)"</v>
       </c>
       <c r="G31" t="str">
-        <f>""""&amp;IF(OR(planificación!Q35="online",planificación!Q35="polideportivo",planificación!Q35="entrega"),planificación!Q35,planificación!R35)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R35="online",planificación!R35="polideportivo",planificación!R35="entrega"),planificación!R35,planificación!S35)&amp;""""</f>
         <v>"L-14, L-31, L-32, L-11, L-12, L-13"</v>
       </c>
     </row>
@@ -10458,7 +10533,7 @@
         <v>"Examen Teórico de Calidad, Validación y Verificación del Software"</v>
       </c>
       <c r="G32" t="str">
-        <f>""""&amp;IF(OR(planificación!Q36="online",planificación!Q36="polideportivo",planificación!Q36="entrega"),planificación!Q36,planificación!R36)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R36="online",planificación!R36="polideportivo",planificación!R36="entrega"),planificación!R36,planificación!S36)&amp;""""</f>
         <v>"A-2-01"</v>
       </c>
     </row>
@@ -10488,7 +10563,7 @@
         <v>"Examen Práctico de Sistemas Operativos"</v>
       </c>
       <c r="G33" t="str">
-        <f>""""&amp;IF(OR(planificación!Q37="online",planificación!Q37="polideportivo",planificación!Q37="entrega"),planificación!Q37,planificación!R37)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R37="online",planificación!R37="polideportivo",planificación!R37="entrega"),planificación!R37,planificación!S37)&amp;""""</f>
         <v>"L-04, L-01, L-02, L-03, L-05, "</v>
       </c>
     </row>
@@ -10518,7 +10593,7 @@
         <v>"Examen Práctico de Autómatas y Matemáticas Discretas"</v>
       </c>
       <c r="G34" t="str">
-        <f>""""&amp;IF(OR(planificación!Q38="online",planificación!Q38="polideportivo",planificación!Q38="entrega"),planificación!Q38,planificación!R38)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R38="online",planificación!R38="polideportivo",planificación!R38="entrega"),planificación!R38,planificación!S38)&amp;""""</f>
         <v>"L-11, L-12, L-13, L-14, L-15, L-04, L-03"</v>
       </c>
     </row>
@@ -10548,7 +10623,7 @@
         <v>"Examen Teórico de Software y Estándares para la Web"</v>
       </c>
       <c r="G35" t="str">
-        <f>""""&amp;IF(OR(planificación!Q39="online",planificación!Q39="polideportivo",planificación!Q39="entrega"),planificación!Q39,planificación!R39)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R39="online",planificación!R39="polideportivo",planificación!R39="entrega"),planificación!R39,planificación!S39)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10578,7 +10653,7 @@
         <v>"Trabajo de Software y Estándares para la Web"</v>
       </c>
       <c r="G36" t="str">
-        <f>""""&amp;IF(OR(planificación!Q40="online",planificación!Q40="polideportivo",planificación!Q40="entrega"),planificación!Q40,planificación!R40)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R40="online",planificación!R40="polideportivo",planificación!R40="entrega"),planificación!R40,planificación!S40)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10608,7 +10683,7 @@
         <v>"Examen Práctico de Estructura de Datos"</v>
       </c>
       <c r="G37" t="str">
-        <f>""""&amp;IF(OR(planificación!Q41="online",planificación!Q41="polideportivo",planificación!Q41="entrega"),planificación!Q41,planificación!R41)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R41="online",planificación!R41="polideportivo",planificación!R41="entrega"),planificación!R41,planificación!S41)&amp;""""</f>
         <v>"L-14, L-04, L-12, L-13, L-15, L-16"</v>
       </c>
     </row>
@@ -10638,7 +10713,7 @@
         <v>"Trabajo de Informática Audiovisual"</v>
       </c>
       <c r="G38" t="str">
-        <f>""""&amp;IF(OR(planificación!Q42="online",planificación!Q42="polideportivo",planificación!Q42="entrega"),planificación!Q42,planificación!R42)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R42="online",planificación!R42="polideportivo",planificación!R42="entrega"),planificación!R42,planificación!S42)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -10668,7 +10743,7 @@
         <v>"Examen Práctico de Diseño del Software"</v>
       </c>
       <c r="G39" t="str">
-        <f>""""&amp;IF(OR(planificación!Q43="online",planificación!Q43="polideportivo",planificación!Q43="entrega"),planificación!Q43,planificación!R43)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R43="online",planificación!R43="polideportivo",planificación!R43="entrega"),planificación!R43,planificación!S43)&amp;""""</f>
         <v>"L-14, L-31, L-32, L-11, L-12, L-13"</v>
       </c>
     </row>
@@ -10698,7 +10773,7 @@
         <v>"Examen Teórico de Empresa"</v>
       </c>
       <c r="G40" t="str">
-        <f>""""&amp;IF(OR(planificación!Q44="online",planificación!Q44="polideportivo",planificación!Q44="entrega"),planificación!Q44,planificación!R44)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R44="online",planificación!R44="polideportivo",planificación!R44="entrega"),planificación!R44,planificación!S44)&amp;""""</f>
         <v>"A-S-01, A-S-02"</v>
       </c>
     </row>
@@ -10728,7 +10803,7 @@
         <v>"Examen Teórico de Bases de Datos"</v>
       </c>
       <c r="G41" t="str">
-        <f>""""&amp;IF(OR(planificación!Q45="online",planificación!Q45="polideportivo",planificación!Q45="entrega"),planificación!Q45,planificación!R45)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R45="online",planificación!R45="polideportivo",planificación!R45="entrega"),planificación!R45,planificación!S45)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -10758,7 +10833,7 @@
         <v>"Examen Teórico de Cálculo"</v>
       </c>
       <c r="G42" t="str">
-        <f>""""&amp;IF(OR(planificación!Q46="online",planificación!Q46="polideportivo",planificación!Q46="entrega"),planificación!Q46,planificación!R46)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R46="online",planificación!R46="polideportivo",planificación!R46="entrega"),planificación!R46,planificación!S46)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -10788,7 +10863,7 @@
         <v>"Examen Teórico de Informática Forense y Auditoría"</v>
       </c>
       <c r="G43" t="str">
-        <f>""""&amp;IF(OR(planificación!Q47="online",planificación!Q47="polideportivo",planificación!Q47="entrega"),planificación!Q47,planificación!R47)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R47="online",planificación!R47="polideportivo",planificación!R47="entrega"),planificación!R47,planificación!S47)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10818,7 +10893,7 @@
         <v>"Examen Práctico de Comunicación Persona-Máquina"</v>
       </c>
       <c r="G44" t="str">
-        <f>""""&amp;IF(OR(planificación!Q48="online",planificación!Q48="polideportivo",planificación!Q48="entrega"),planificación!Q48,planificación!R48)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R48="online",planificación!R48="polideportivo",planificación!R48="entrega"),planificación!R48,planificación!S48)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10848,7 +10923,7 @@
         <v>"Trabajo de Software y Estándares para la Web"</v>
       </c>
       <c r="G45" t="str">
-        <f>""""&amp;IF(OR(planificación!Q49="online",planificación!Q49="polideportivo",planificación!Q49="entrega"),planificación!Q49,planificación!R49)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R49="online",planificación!R49="polideportivo",planificación!R49="entrega"),planificación!R49,planificación!S49)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10878,7 +10953,7 @@
         <v>"Examen Práctico de Introducción a la Programación"</v>
       </c>
       <c r="G46" t="str">
-        <f>""""&amp;IF(OR(planificación!Q50="online",planificación!Q50="polideportivo",planificación!Q50="entrega"),planificación!Q50,planificación!R50)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R50="online",planificación!R50="polideportivo",planificación!R50="entrega"),planificación!R50,planificación!S50)&amp;""""</f>
         <v>"L-14, L-31, L-32, "</v>
       </c>
     </row>
@@ -10908,7 +10983,7 @@
         <v>"Examen Teórico de Dirección y Planificación de Proyectos Informáticos"</v>
       </c>
       <c r="G47" t="str">
-        <f>""""&amp;IF(OR(planificación!Q51="online",planificación!Q51="polideportivo",planificación!Q51="entrega"),planificación!Q51,planificación!R51)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R51="online",planificación!R51="polideportivo",planificación!R51="entrega"),planificación!R51,planificación!S51)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -10938,7 +11013,7 @@
         <v>"Examen Práctico de Algoritmia"</v>
       </c>
       <c r="G48" t="str">
-        <f>""""&amp;IF(OR(planificación!Q52="online",planificación!Q52="polideportivo",planificación!Q52="entrega"),planificación!Q52,planificación!R52)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R52="online",planificación!R52="polideportivo",planificación!R52="entrega"),planificación!R52,planificación!S52)&amp;""""</f>
         <v>"L-11, L-12, L-13, "</v>
       </c>
     </row>
@@ -10968,7 +11043,7 @@
         <v>"Examen Teórico de Estadística"</v>
       </c>
       <c r="G49" t="str">
-        <f>""""&amp;IF(OR(planificación!Q53="online",planificación!Q53="polideportivo",planificación!Q53="entrega"),planificación!Q53,planificación!R53)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R53="online",planificación!R53="polideportivo",planificación!R53="entrega"),planificación!R53,planificación!S53)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -10998,7 +11073,7 @@
         <v>"Examen Práctico de Sistemas Distribuidos e Internet"</v>
       </c>
       <c r="G50" t="str">
-        <f>""""&amp;IF(OR(planificación!Q54="online",planificación!Q54="polideportivo",planificación!Q54="entrega"),planificación!Q54,planificación!R54)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R54="online",planificación!R54="polideportivo",planificación!R54="entrega"),planificación!R54,planificación!S54)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -11028,7 +11103,7 @@
         <v>"Examen Práctico de Computación Numérica"</v>
       </c>
       <c r="G51" t="str">
-        <f>""""&amp;IF(OR(planificación!Q55="online",planificación!Q55="polideportivo",planificación!Q55="entrega"),planificación!Q55,planificación!R55)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R55="online",planificación!R55="polideportivo",planificación!R55="entrega"),planificación!R55,planificación!S55)&amp;""""</f>
         <v>"L-14, L-31, L-32"</v>
       </c>
     </row>
@@ -11058,7 +11133,7 @@
         <v>"Trabajo de Software para Robots"</v>
       </c>
       <c r="G52" t="str">
-        <f>""""&amp;IF(OR(planificación!Q56="online",planificación!Q56="polideportivo",planificación!Q56="entrega"),planificación!Q56,planificación!R56)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R56="online",planificación!R56="polideportivo",planificación!R56="entrega"),planificación!R56,planificación!S56)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -11088,7 +11163,7 @@
         <v>"Examen Práctico de Seguridad de Sistemas Informáticos"</v>
       </c>
       <c r="G53" t="str">
-        <f>""""&amp;IF(OR(planificación!Q57="online",planificación!Q57="polideportivo",planificación!Q57="entrega"),planificación!Q57,planificación!R57)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R57="online",planificación!R57="polideportivo",planificación!R57="entrega"),planificación!R57,planificación!S57)&amp;""""</f>
         <v>"L-14, L-31, L-32, L-11, L-12, "</v>
       </c>
     </row>
@@ -11118,7 +11193,7 @@
         <v>"Examen Teórico de Computabilidad"</v>
       </c>
       <c r="G54" t="str">
-        <f>""""&amp;IF(OR(planificación!Q58="online",planificación!Q58="polideportivo",planificación!Q58="entrega"),planificación!Q58,planificación!R58)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R58="online",planificación!R58="polideportivo",planificación!R58="entrega"),planificación!R58,planificación!S58)&amp;""""</f>
         <v>"A-2-01, A-2-02"</v>
       </c>
     </row>
@@ -11148,7 +11223,7 @@
         <v>"Examen Teórico de Aspectos Sociales, Legales, Éticos y Prof. de la Informática"</v>
       </c>
       <c r="G55" t="str">
-        <f>""""&amp;IF(OR(planificación!Q59="online",planificación!Q59="polideportivo",planificación!Q59="entrega"),planificación!Q59,planificación!R59)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R59="online",planificación!R59="polideportivo",planificación!R59="entrega"),planificación!R59,planificación!S59)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -11178,7 +11253,7 @@
         <v>"Trabajo de Software de entretenimiento y videojuegos"</v>
       </c>
       <c r="G56" t="str">
-        <f>""""&amp;IF(OR(planificación!Q60="online",planificación!Q60="polideportivo",planificación!Q60="entrega"),planificación!Q60,planificación!R60)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R60="online",planificación!R60="polideportivo",planificación!R60="entrega"),planificación!R60,planificación!S60)&amp;""""</f>
         <v>"entrega"</v>
       </c>
     </row>
@@ -11208,7 +11283,7 @@
         <v>"Examen Práctico de Bases de Datos"</v>
       </c>
       <c r="G57" t="str">
-        <f>""""&amp;IF(OR(planificación!Q61="online",planificación!Q61="polideportivo",planificación!Q61="entrega"),planificación!Q61,planificación!R61)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R61="online",planificación!R61="polideportivo",planificación!R61="entrega"),planificación!R61,planificación!S61)&amp;""""</f>
         <v>"L-14, L-31, L-32, L-11, L-04, "</v>
       </c>
     </row>
@@ -11238,7 +11313,7 @@
         <v>"Examen Teórico de Álgebra Lineal"</v>
       </c>
       <c r="G58" t="str">
-        <f>""""&amp;IF(OR(planificación!Q62="online",planificación!Q62="polideportivo",planificación!Q62="entrega"),planificación!Q62,planificación!R62)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R62="online",planificación!R62="polideportivo",planificación!R62="entrega"),planificación!R62,planificación!S62)&amp;""""</f>
         <v>"polideportivo"</v>
       </c>
     </row>
@@ -11268,7 +11343,7 @@
         <v>"Examen Teórico de Tecnología Electrónica de Computadores"</v>
       </c>
       <c r="G59" t="str">
-        <f>""""&amp;IF(OR(planificación!Q63="online",planificación!Q63="polideportivo",planificación!Q63="entrega"),planificación!Q63,planificación!R63)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R63="online",planificación!R63="polideportivo",planificación!R63="entrega"),planificación!R63,planificación!S63)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -11298,7 +11373,7 @@
         <v>"Examen Práctico de Diseño de Lenguajes de Programación 100 (tanda 1)"</v>
       </c>
       <c r="G60" t="str">
-        <f>""""&amp;IF(OR(planificación!Q64="online",planificación!Q64="polideportivo",planificación!Q64="entrega"),planificación!Q64,planificación!R64)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R64="online",planificación!R64="polideportivo",planificación!R64="entrega"),planificación!R64,planificación!S64)&amp;""""</f>
         <v>"L-14, L-31, L-32, L-11, L-04, L-01, L-15"</v>
       </c>
     </row>
@@ -11328,7 +11403,7 @@
         <v>"Examen Práctico de Tecnología Electrónica de Computadores"</v>
       </c>
       <c r="G61" t="str">
-        <f>""""&amp;IF(OR(planificación!Q65="online",planificación!Q65="polideportivo",planificación!Q65="entrega"),planificación!Q65,planificación!R65)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R65="online",planificación!R65="polideportivo",planificación!R65="entrega"),planificación!R65,planificación!S65)&amp;""""</f>
         <v>"online"</v>
       </c>
     </row>
@@ -11358,7 +11433,7 @@
         <v>"Examen Práctico de Diseño de Lenguajes de Programación 100 (tanda 2)"</v>
       </c>
       <c r="G62" t="str">
-        <f>""""&amp;IF(OR(planificación!Q66="online",planificación!Q66="polideportivo",planificación!Q66="entrega"),planificación!Q66,planificación!R66)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R66="online",planificación!R66="polideportivo",planificación!R66="entrega"),planificación!R66,planificación!S66)&amp;""""</f>
         <v>"L-12, L-13"</v>
       </c>
     </row>
@@ -11388,7 +11463,7 @@
         <v>"Examen Práctico de Fundamentos de Computadores y Redes"</v>
       </c>
       <c r="G63" t="str">
-        <f>""""&amp;IF(OR(planificación!Q67="online",planificación!Q67="polideportivo",planificación!Q67="entrega"),planificación!Q67,planificación!R67)&amp;""""</f>
+        <f>""""&amp;IF(OR(planificación!R67="online",planificación!R67="polideportivo",planificación!R67="entrega"),planificación!R67,planificación!S67)&amp;""""</f>
         <v>"L-13, L-15, L-14"</v>
       </c>
     </row>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CBF04-25CE-49C1-A15B-E3661A9B3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA70F47-785E-40BA-8FFE-7752BE12C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1954,13 +1954,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2023,57 +2072,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2100,23 +2098,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2422,7 +2420,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2567,9 @@
         <f>M6+J6</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="78">
+        <v>-1</v>
+      </c>
       <c r="P6" s="77">
         <v>1</v>
       </c>
@@ -2633,7 +2633,9 @@
         <f t="shared" ref="N7:N67" si="1">M7+J7</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="78">
+        <v>-1</v>
+      </c>
       <c r="P7" s="13">
         <v>1</v>
       </c>
@@ -2701,7 +2703,9 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333326</v>
       </c>
-      <c r="O8" s="112"/>
+      <c r="O8" s="78">
+        <v>-1</v>
+      </c>
       <c r="P8" s="77">
         <v>1</v>
       </c>
@@ -2765,7 +2769,9 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="78">
+        <v>-1</v>
+      </c>
       <c r="P9" s="13">
         <v>1</v>
       </c>
@@ -2829,7 +2835,9 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="78">
+        <v>-1</v>
+      </c>
       <c r="P10" s="77">
         <v>1</v>
       </c>
@@ -2899,7 +2907,9 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O11" s="15"/>
+      <c r="O11" s="78">
+        <v>-1</v>
+      </c>
       <c r="P11" s="13">
         <v>1</v>
       </c>
@@ -2963,7 +2973,9 @@
         <f t="shared" si="1"/>
         <v>0.72916666666666663</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="78">
+        <v>-1</v>
+      </c>
       <c r="P12" s="77">
         <v>1</v>
       </c>
@@ -3029,7 +3041,9 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="78">
+        <v>-1</v>
+      </c>
       <c r="P13" s="13">
         <v>1</v>
       </c>
@@ -3099,7 +3113,9 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O14" s="10"/>
+      <c r="O14" s="78">
+        <v>-1</v>
+      </c>
       <c r="P14" s="77">
         <v>1</v>
       </c>
@@ -3167,7 +3183,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="78">
+        <v>-1</v>
+      </c>
       <c r="P15" s="13">
         <v>1</v>
       </c>
@@ -3231,7 +3249,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="78">
+        <v>-1</v>
+      </c>
       <c r="P16" s="77">
         <v>1</v>
       </c>
@@ -3299,7 +3319,9 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="78">
+        <v>-1</v>
+      </c>
       <c r="P17" s="13">
         <v>1</v>
       </c>
@@ -3367,7 +3389,9 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O18" s="112"/>
+      <c r="O18" s="78">
+        <v>-1</v>
+      </c>
       <c r="P18" s="77">
         <v>1</v>
       </c>
@@ -3435,7 +3459,9 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="78">
+        <v>-1</v>
+      </c>
       <c r="P19" s="13">
         <v>1</v>
       </c>
@@ -3497,7 +3523,9 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="78">
+        <v>-1</v>
+      </c>
       <c r="P20" s="77">
         <v>1</v>
       </c>
@@ -3565,7 +3593,9 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="78">
+        <v>-1</v>
+      </c>
       <c r="P21" s="13">
         <v>1</v>
       </c>
@@ -3633,7 +3663,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O22" s="113"/>
+      <c r="O22" s="78">
+        <v>-1</v>
+      </c>
       <c r="P22" s="77">
         <v>1</v>
       </c>
@@ -3697,7 +3729,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O23" s="10"/>
+      <c r="O23" s="78">
+        <v>-1</v>
+      </c>
       <c r="P23" s="13">
         <v>1</v>
       </c>
@@ -3765,7 +3799,9 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="78">
+        <v>-1</v>
+      </c>
       <c r="P24" s="77">
         <v>1</v>
       </c>
@@ -3831,7 +3867,9 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O25" s="15"/>
+      <c r="O25" s="78">
+        <v>-1</v>
+      </c>
       <c r="P25" s="13">
         <v>1</v>
       </c>
@@ -3893,7 +3931,9 @@
         <f t="shared" si="1"/>
         <v>0.72916666666666674</v>
       </c>
-      <c r="O26" s="10"/>
+      <c r="O26" s="78">
+        <v>-1</v>
+      </c>
       <c r="P26" s="77">
         <v>1</v>
       </c>
@@ -3957,7 +3997,9 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="O27" s="15"/>
+      <c r="O27" s="78">
+        <v>-1</v>
+      </c>
       <c r="P27" s="13">
         <v>1</v>
       </c>
@@ -4019,7 +4061,9 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="78">
+        <v>-1</v>
+      </c>
       <c r="P28" s="77">
         <v>1</v>
       </c>
@@ -4081,7 +4125,9 @@
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="O29" s="15"/>
+      <c r="O29" s="78">
+        <v>-1</v>
+      </c>
       <c r="P29" s="13">
         <v>1</v>
       </c>
@@ -4153,7 +4199,9 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333326</v>
       </c>
-      <c r="O30" s="10"/>
+      <c r="O30" s="78">
+        <v>-1</v>
+      </c>
       <c r="P30" s="77">
         <v>1</v>
       </c>
@@ -4219,7 +4267,9 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="O31" s="15"/>
+      <c r="O31" s="78">
+        <v>-1</v>
+      </c>
       <c r="P31" s="13">
         <v>1</v>
       </c>
@@ -4283,7 +4333,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="78">
+        <v>-1</v>
+      </c>
       <c r="P32" s="77">
         <v>1</v>
       </c>
@@ -4349,7 +4401,9 @@
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="O33" s="15"/>
+      <c r="O33" s="78">
+        <v>-1</v>
+      </c>
       <c r="P33" s="13">
         <v>1</v>
       </c>
@@ -4415,7 +4469,9 @@
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="78">
+        <v>-1</v>
+      </c>
       <c r="P34" s="77">
         <v>1</v>
       </c>
@@ -4487,7 +4543,9 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O35" s="15"/>
+      <c r="O35" s="78">
+        <v>-1</v>
+      </c>
       <c r="P35" s="13">
         <v>1</v>
       </c>
@@ -4555,7 +4613,9 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="78">
+        <v>-1</v>
+      </c>
       <c r="P36" s="77">
         <v>1</v>
       </c>
@@ -4623,7 +4683,9 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O37" s="15"/>
+      <c r="O37" s="78">
+        <v>-1</v>
+      </c>
       <c r="P37" s="13">
         <v>1</v>
       </c>
@@ -4691,7 +4753,9 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="O38" s="10"/>
+      <c r="O38" s="78">
+        <v>-1</v>
+      </c>
       <c r="P38" s="77">
         <v>1</v>
       </c>
@@ -4757,7 +4821,9 @@
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="O39" s="15"/>
+      <c r="O39" s="78">
+        <v>-1</v>
+      </c>
       <c r="P39" s="13">
         <v>1</v>
       </c>
@@ -4819,7 +4885,9 @@
         <f t="shared" si="1"/>
         <v>0.52083333333333337</v>
       </c>
-      <c r="O40" s="10"/>
+      <c r="O40" s="78">
+        <v>-1</v>
+      </c>
       <c r="P40" s="77">
         <v>1</v>
       </c>
@@ -4883,7 +4951,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O41" s="15"/>
+      <c r="O41" s="78">
+        <v>-1</v>
+      </c>
       <c r="P41" s="13">
         <v>1</v>
       </c>
@@ -4949,7 +5019,9 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O42" s="10"/>
+      <c r="O42" s="78">
+        <v>-1</v>
+      </c>
       <c r="P42" s="77">
         <v>1</v>
       </c>
@@ -5013,7 +5085,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O43" s="15"/>
+      <c r="O43" s="78">
+        <v>-1</v>
+      </c>
       <c r="P43" s="13">
         <v>1</v>
       </c>
@@ -5083,7 +5157,9 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O44" s="10"/>
+      <c r="O44" s="78">
+        <v>-1</v>
+      </c>
       <c r="P44" s="77">
         <v>1</v>
       </c>
@@ -5151,7 +5227,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O45" s="60"/>
+      <c r="O45" s="78">
+        <v>-1</v>
+      </c>
       <c r="P45" s="13">
         <v>1</v>
       </c>
@@ -5219,7 +5297,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O46" s="10"/>
+      <c r="O46" s="78">
+        <v>-1</v>
+      </c>
       <c r="P46" s="77">
         <v>1</v>
       </c>
@@ -5285,7 +5365,9 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O47" s="15"/>
+      <c r="O47" s="78">
+        <v>-1</v>
+      </c>
       <c r="P47" s="13">
         <v>1</v>
       </c>
@@ -5347,7 +5429,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O48" s="10"/>
+      <c r="O48" s="78">
+        <v>-1</v>
+      </c>
       <c r="P48" s="77">
         <v>1</v>
       </c>
@@ -5411,7 +5495,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O49" s="15"/>
+      <c r="O49" s="78">
+        <v>-1</v>
+      </c>
       <c r="P49" s="13">
         <v>1</v>
       </c>
@@ -5475,7 +5561,9 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O50" s="10"/>
+      <c r="O50" s="78">
+        <v>-1</v>
+      </c>
       <c r="P50" s="77">
         <v>1</v>
       </c>
@@ -5543,7 +5631,9 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O51" s="15"/>
+      <c r="O51" s="78">
+        <v>-1</v>
+      </c>
       <c r="P51" s="13">
         <v>1</v>
       </c>
@@ -5607,7 +5697,9 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O52" s="10"/>
+      <c r="O52" s="78">
+        <v>-1</v>
+      </c>
       <c r="P52" s="77">
         <v>1</v>
       </c>
@@ -5675,7 +5767,9 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O53" s="15"/>
+      <c r="O53" s="78">
+        <v>-1</v>
+      </c>
       <c r="P53" s="13">
         <v>1</v>
       </c>
@@ -5739,7 +5833,9 @@
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="O54" s="10"/>
+      <c r="O54" s="78">
+        <v>-1</v>
+      </c>
       <c r="P54" s="77">
         <v>1</v>
       </c>
@@ -5803,7 +5899,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O55" s="15"/>
+      <c r="O55" s="78">
+        <v>-1</v>
+      </c>
       <c r="P55" s="13">
         <v>1</v>
       </c>
@@ -5869,7 +5967,9 @@
         <f t="shared" si="1"/>
         <v>0.97916666666666674</v>
       </c>
-      <c r="O56" s="10"/>
+      <c r="O56" s="78">
+        <v>-1</v>
+      </c>
       <c r="P56" s="77">
         <v>1</v>
       </c>
@@ -5933,7 +6033,9 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O57" s="15"/>
+      <c r="O57" s="78">
+        <v>-1</v>
+      </c>
       <c r="P57" s="13">
         <v>1</v>
       </c>
@@ -6001,7 +6103,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="O58" s="10"/>
+      <c r="O58" s="78">
+        <v>-1</v>
+      </c>
       <c r="P58" s="77">
         <v>1</v>
       </c>
@@ -6069,7 +6173,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O59" s="47"/>
+      <c r="O59" s="78">
+        <v>-1</v>
+      </c>
       <c r="P59" s="13">
         <v>1</v>
       </c>
@@ -6131,7 +6237,9 @@
         <f t="shared" si="1"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="O60" s="10"/>
+      <c r="O60" s="78">
+        <v>-1</v>
+      </c>
       <c r="P60" s="77">
         <v>1</v>
       </c>
@@ -6190,7 +6298,9 @@
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="O61" s="15"/>
+      <c r="O61" s="78">
+        <v>-1</v>
+      </c>
       <c r="P61" s="13">
         <v>1</v>
       </c>
@@ -6254,7 +6364,9 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="O62" s="113"/>
+      <c r="O62" s="78">
+        <v>-1</v>
+      </c>
       <c r="P62" s="77">
         <v>1</v>
       </c>
@@ -6316,7 +6428,9 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O63" s="15"/>
+      <c r="O63" s="78">
+        <v>-1</v>
+      </c>
       <c r="P63" s="13">
         <v>1</v>
       </c>
@@ -6375,7 +6489,9 @@
         <f t="shared" si="1"/>
         <v>0.52083333333333337</v>
       </c>
-      <c r="O64" s="10"/>
+      <c r="O64" s="78">
+        <v>-1</v>
+      </c>
       <c r="P64" s="77">
         <v>1</v>
       </c>
@@ -6442,7 +6558,9 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O65" s="15"/>
+      <c r="O65" s="78">
+        <v>-1</v>
+      </c>
       <c r="P65" s="13">
         <v>1</v>
       </c>
@@ -6501,7 +6619,9 @@
         <f t="shared" si="1"/>
         <v>0.77083333333333337</v>
       </c>
-      <c r="O66" s="10"/>
+      <c r="O66" s="78">
+        <v>-1</v>
+      </c>
       <c r="P66" s="77">
         <v>1</v>
       </c>
@@ -6568,7 +6688,9 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="O67" s="15"/>
+      <c r="O67" s="78">
+        <v>-1</v>
+      </c>
       <c r="P67" s="13">
         <v>1</v>
       </c>
@@ -6615,33 +6737,33 @@
   <mergeCells count="1">
     <mergeCell ref="R5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:S7 R10 R8:S9 R11:S33 R34 R35:S67 A8:Q43 A6:J6 L6:S6 A45:Q57 A44:J44 L44:Q44 A59:Q67 A58:J58 L58:Q58">
-    <cfRule type="expression" dxfId="7" priority="18">
+  <conditionalFormatting sqref="R10 R8:S9 R11:S33 R34 R35:S67 A7:N43 A6:J6 L6:S6 A45:N57 A44:J44 L44:N44 A59:N67 A58:J58 L58:N58 P8:Q67 P7:S7 O7:O67">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$T6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R67">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$R6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$R44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$R58=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6999,7 +7121,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7195,7 +7317,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA70F47-785E-40BA-8FFE-7752BE12C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097E6EE-1C11-4256-A557-3A03CBC66903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="399">
   <si>
     <t>ID</t>
   </si>
@@ -1304,6 +1304,9 @@
   </si>
   <si>
     <t>Tiempo Extra</t>
+  </si>
+  <si>
+    <t>Cumplida?</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1811,11 +1814,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1909,17 +1977,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1933,27 +1993,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2419,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
@@ -2523,10 +2595,10 @@
       <c r="Q5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="101" t="s">
+      <c r="R5" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="S5" s="101"/>
+      <c r="S5" s="97"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
@@ -5549,7 +5621,7 @@
       <c r="J50" s="15">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K50" s="94"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="7" t="str">
         <f t="shared" si="2"/>
         <v>sábado</v>
@@ -6775,10 +6847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,232 +6861,286 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="106" t="s">
         <v>385</v>
       </c>
+      <c r="E4" s="107" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
+      <c r="B5" s="101">
         <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="40">
-        <v>1</v>
-      </c>
+      <c r="D5" s="101">
+        <v>1</v>
+      </c>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="102">
         <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>45</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="102">
         <v>2</v>
       </c>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
+      <c r="B7" s="102">
         <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>34</v>
       </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="93"/>
+      <c r="D7" s="102">
+        <v>1</v>
+      </c>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="95"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="71"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="85"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="118" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="119" t="s">
         <v>384</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>46</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="101">
         <v>47</v>
       </c>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>34</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="102">
         <v>46</v>
       </c>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>47</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="102">
         <v>3</v>
       </c>
+      <c r="D15" s="104"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="85"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="102" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="85"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="105" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="104"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="C20" s="107"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="96" t="s">
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="111" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="39">
+      <c r="D21" s="107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="101">
         <v>23</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="95">
         <v>44364</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="101"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="112"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="113"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="102" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="104"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="107"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="106" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="39">
+      <c r="D28" s="107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="101">
         <v>23</v>
       </c>
       <c r="C29" s="40">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="95"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="108"/>
       <c r="C30" s="85"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="85"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="110" t="s">
+      <c r="D31" s="103"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="109" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="111"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="108" t="s">
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="110" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="109"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="106" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="106" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="39">
+      <c r="D35" s="107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="101">
         <v>23</v>
       </c>
       <c r="C36" s="40">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="95"/>
+      <c r="D36" s="102"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="108"/>
       <c r="C37" s="85"/>
+      <c r="D37" s="108"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="103"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097E6EE-1C11-4256-A557-3A03CBC66903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DCA6E-EF66-4CE9-8DEF-414BCAFA7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificación" sheetId="2" r:id="rId1"/>
@@ -1981,8 +1981,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1993,95 +2020,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2144,6 +2093,57 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2170,23 +2170,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2595,10 +2595,10 @@
       <c r="Q5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="R5" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="S5" s="97"/>
+      <c r="S5" s="110"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
@@ -6810,32 +6810,32 @@
     <mergeCell ref="R5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="R10 R8:S9 R11:S33 R34 R35:S67 A7:N43 A6:J6 L6:S6 A45:N57 A44:J44 L44:N44 A59:N67 A58:J58 L58:N58 P8:Q67 P7:S7 O7:O67">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$T6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R67">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$R6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$R44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$R58=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6847,10 +6847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC83AD5-6F52-41B7-9F54-B20EA3E13FEF}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,286 +6861,829 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="111" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="111" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="102" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="101">
+      <c r="B5" s="97">
         <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="97">
         <v>1</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="102">
+      <c r="B6" s="98">
         <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>45</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="98">
         <v>2</v>
       </c>
       <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="102">
+      <c r="B7" s="98">
         <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>34</v>
       </c>
-      <c r="D7" s="102">
-        <v>1</v>
-      </c>
-      <c r="E7" s="104"/>
+      <c r="D7" s="98">
+        <v>1</v>
+      </c>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="108"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="B8" s="98">
+        <v>0</v>
+      </c>
+      <c r="C8" s="36">
+        <v>50</v>
+      </c>
+      <c r="D8" s="98">
+        <v>18</v>
+      </c>
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="103"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="115" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="117"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="108" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C13" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D13" s="107" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="39">
-        <v>46</v>
-      </c>
-      <c r="C13" s="101">
-        <v>47</v>
-      </c>
-      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
-        <v>34</v>
-      </c>
-      <c r="C14" s="102">
         <v>46</v>
+      </c>
+      <c r="C14" s="97">
+        <v>47</v>
       </c>
       <c r="D14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
+        <v>34</v>
+      </c>
+      <c r="C15" s="98">
+        <v>46</v>
+      </c>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
         <v>47</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C16" s="98">
         <v>3</v>
       </c>
-      <c r="D15" s="104"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="85"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="s">
+      <c r="D16" s="100"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="94"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="85"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="104" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C22" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D22" s="102" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="101">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="97">
+        <v>1</v>
+      </c>
+      <c r="C23" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D23" s="97"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="98">
+        <v>2</v>
+      </c>
+      <c r="C24" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D24" s="98"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="97">
+        <v>3</v>
+      </c>
+      <c r="C25" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D25" s="98"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="98">
+        <v>4</v>
+      </c>
+      <c r="C26" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D26" s="98"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="97">
+        <v>5</v>
+      </c>
+      <c r="C27" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D27" s="98"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="98">
+        <v>6</v>
+      </c>
+      <c r="C28" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D28" s="98"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="97">
+        <v>7</v>
+      </c>
+      <c r="C29" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D29" s="98"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="98">
+        <v>8</v>
+      </c>
+      <c r="C30" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D30" s="98"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="97">
+        <v>9</v>
+      </c>
+      <c r="C31" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D31" s="98"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="98">
+        <v>10</v>
+      </c>
+      <c r="C32" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D32" s="98"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="97">
+        <v>11</v>
+      </c>
+      <c r="C33" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D33" s="98"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="98">
+        <v>12</v>
+      </c>
+      <c r="C34" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D34" s="98"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="97">
+        <v>13</v>
+      </c>
+      <c r="C35" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D35" s="98"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="98">
+        <v>14</v>
+      </c>
+      <c r="C36" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D36" s="98"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="97">
+        <v>15</v>
+      </c>
+      <c r="C37" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D37" s="98"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="98">
+        <v>16</v>
+      </c>
+      <c r="C38" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D38" s="98"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="97">
+        <v>17</v>
+      </c>
+      <c r="C39" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D39" s="98"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="98">
+        <v>18</v>
+      </c>
+      <c r="C40" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D40" s="98"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="97">
+        <v>19</v>
+      </c>
+      <c r="C41" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D41" s="98"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="98">
+        <v>20</v>
+      </c>
+      <c r="C42" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D42" s="98"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="97">
+        <v>21</v>
+      </c>
+      <c r="C43" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D43" s="98"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="98">
+        <v>22</v>
+      </c>
+      <c r="C44" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D44" s="98"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="97">
         <v>23</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C45" s="95">
         <v>44364</v>
       </c>
-      <c r="D22" s="101"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="113"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="30"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="105" t="s">
+      <c r="D45" s="98"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="98">
+        <v>24</v>
+      </c>
+      <c r="C46" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D46" s="98"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="97">
+        <v>25</v>
+      </c>
+      <c r="C47" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D47" s="98"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="98">
+        <v>26</v>
+      </c>
+      <c r="C48" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D48" s="98"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="97">
+        <v>27</v>
+      </c>
+      <c r="C49" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D49" s="98"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="98">
+        <v>28</v>
+      </c>
+      <c r="C50" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D50" s="98"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="97">
+        <v>29</v>
+      </c>
+      <c r="C51" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D51" s="98"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="98">
+        <v>30</v>
+      </c>
+      <c r="C52" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D52" s="98"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="97">
+        <v>31</v>
+      </c>
+      <c r="C53" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D53" s="98"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="98">
+        <v>32</v>
+      </c>
+      <c r="C54" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D54" s="98"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="97">
+        <v>33</v>
+      </c>
+      <c r="C55" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D55" s="98"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="98">
+        <v>34</v>
+      </c>
+      <c r="C56" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D56" s="98"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="97">
+        <v>35</v>
+      </c>
+      <c r="C57" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D57" s="98"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="98">
+        <v>36</v>
+      </c>
+      <c r="C58" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D58" s="98"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="97">
+        <v>37</v>
+      </c>
+      <c r="C59" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D59" s="98"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="98">
+        <v>38</v>
+      </c>
+      <c r="C60" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D60" s="98"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="97">
+        <v>39</v>
+      </c>
+      <c r="C61" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D61" s="98"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="98">
+        <v>40</v>
+      </c>
+      <c r="C62" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D62" s="98"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="97">
+        <v>41</v>
+      </c>
+      <c r="C63" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D63" s="98"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="98">
+        <v>42</v>
+      </c>
+      <c r="C64" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D64" s="98"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="97">
+        <v>43</v>
+      </c>
+      <c r="C65" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D65" s="98"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="98">
+        <v>44</v>
+      </c>
+      <c r="C66" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D66" s="98"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="97">
+        <v>45</v>
+      </c>
+      <c r="C67" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D67" s="98"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="98">
+        <v>46</v>
+      </c>
+      <c r="C68" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D68" s="98"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="97">
+        <v>47</v>
+      </c>
+      <c r="C69" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D69" s="98"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="98">
+        <v>48</v>
+      </c>
+      <c r="C70" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D70" s="98"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="97">
+        <v>49</v>
+      </c>
+      <c r="C71" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D71" s="98"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="98">
+        <v>50</v>
+      </c>
+      <c r="C72" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D72" s="98"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="97">
+        <v>51</v>
+      </c>
+      <c r="C73" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D73" s="98"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="98">
+        <v>52</v>
+      </c>
+      <c r="C74" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D74" s="98"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="97">
+        <v>53</v>
+      </c>
+      <c r="C75" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D75" s="98"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="98">
+        <v>54</v>
+      </c>
+      <c r="C76" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D76" s="98"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="97">
+        <v>55</v>
+      </c>
+      <c r="C77" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D77" s="98"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="98">
+        <v>56</v>
+      </c>
+      <c r="C78" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D78" s="98"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="97">
+        <v>57</v>
+      </c>
+      <c r="C79" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D79" s="98"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="98">
+        <v>58</v>
+      </c>
+      <c r="C80" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D80" s="98"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="97">
+        <v>59</v>
+      </c>
+      <c r="C81" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D81" s="98"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="98">
+        <v>60</v>
+      </c>
+      <c r="C82" s="95">
+        <v>44364</v>
+      </c>
+      <c r="D82" s="98"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="105"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="106"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="30"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="111" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="105" t="s">
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C88" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D88" s="102" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="101">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="97">
         <v>23</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C89" s="40">
         <v>24</v>
       </c>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="108"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="103"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="109" t="s">
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="103"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="99"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="110" t="s">
+      <c r="C93" s="119"/>
+      <c r="D93" s="119"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="118" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="106" t="s">
+      <c r="C94" s="118"/>
+      <c r="D94" s="118"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C95" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D95" s="102" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="101">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="97">
         <v>23</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C96" s="40">
         <v>26</v>
       </c>
-      <c r="D36" s="102"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="108"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="108"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="103"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
+      <c r="D96" s="98"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="103"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="103"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="99"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7152,7 +7695,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,7 +7790,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7443,7 +7986,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/pruebas/v6_sinFechas_2.xlsx
+++ b/files/pruebas/v6_sinFechas_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TfgProject\files\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DCA6E-EF66-4CE9-8DEF-414BCAFA7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23ED0B-5CE1-4930-8ABB-E7FD39330AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="420" windowWidth="26430" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,6 +2002,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,17 +2026,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2093,57 +2144,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2170,23 +2170,23 @@
     <sortCondition ref="F2:F34"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de finalización" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo electrónico" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Asignatura" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo de examen" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Especifique las características de presencialidad" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nº conv" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Dur." dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2º ex" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tipo del 2º examen" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Especifique las características de presencialidad del 2º examen" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Número máximo estimado de alumnos convocados al 2º examen" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Duración máxima estimada del 2º examen" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6810,32 +6810,32 @@
     <mergeCell ref="R5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="R10 R8:S9 R11:S33 R34 R35:S67 A7:N43 A6:J6 L6:S6 A45:N57 A44:J44 L44:N44 A59:N67 A58:J58 L58:N58 P8:Q67 P7:S7 O7:O67">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$T6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H67">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Presencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R67">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"polideportivo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$R6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$R44=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$R58=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6850,7 +6850,7 @@
   <dimension ref="B2:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6919,7 +6919,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D7" s="98">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="98">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E8" s="100"/>
     </row>
@@ -6945,18 +6945,18 @@
       <c r="E9" s="85"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="108" t="s">
@@ -7623,18 +7623,18 @@
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="119" t="s">
+      <c r="B93" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="119"/>
-      <c r="D93" s="119"/>
+      <c r="C93" s="113"/>
+      <c r="D93" s="113"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="118" t="s">
+      <c r="B94" s="112" t="s">
         <v>392</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="118"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="101" t="s">
@@ -7790,7 +7790,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7986,7 +7986,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$Q1=0</formula>
     </cfRule>
   </conditionalFormatting>
